--- a/biology/Biologie cellulaire et moléculaire/Photolyase/Photolyase.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Photolyase/Photolyase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La photolyase est une enzyme qui répare certains des dommages causés dans l'ADN par les ultraviolets et en particulier les dimères de thymine ou plus généralement de pyrimidine. La protéine agit sous l'action d'une lumière bleue ou UV proche, qui excite un cofacteur : la flavine réduite. Celle-ci peut alors transférer un électron au dimère de pyrimidines, ce qui entraîne la scission de ce dimère et la réparation de l'ADN. Ce mécanisme très rapide (de l'ordre de la pico seconde) est encore mal connu mais il implique deux photo-réactions bien distinctes :
 La photoactivation sert à mettre le cofacteur FAD de l’enzyme sous la forme doublement réduite (FADH–) à partir de la forme semi-réduite (FADH°, un radical qui est assez stable dans la photolyase). Cette réaction peut être déclenchée par la lumière visible (jusqu’à 680 nm) absorbée par FADH°.
